--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -490,66 +490,82 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_019, SEC_020, SEC_021</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_021, SUB_026</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FAC_087</t>
+          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_025, SUB_041, SUB_038</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FAC_001</t>
+          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -558,23 +574,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FAC_004</t>
+          <t>FAC_004, FAC_078, FAC_001, FAC_046</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(0, 2), (0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -588,18 +610,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_046</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>FAC_004, FAC_078, FAC_001, FAC_042</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(3, 4), (3, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -608,23 +636,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_042</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>FAC_105, FAC_115</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(2, 0), (2, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -633,73 +667,91 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FAC_105</t>
+          <t>FAC_128</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(1, 2), (1, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_115</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(1, 4), (1, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FAC_128</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -708,23 +760,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FAC_091</t>
+          <t>FAC_005, FAC_086</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -733,2475 +791,3027 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FAC_071</t>
+          <t>FAC_129</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FAC_024</t>
+          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(4, 2), (4, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FAC_005</t>
+          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(0, 2), (0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_086</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>FAC_086, FAC_093, FAC_038</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(2, 0), (2, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FAC_129</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>FAC_001, FAC_042, FAC_030, FAC_138</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SEC_010, SEC_011, SEC_012</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUB_055, SUB_001, SUB_011</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FAC_082, FAC_074, FAC_121, FAC_139</t>
+          <t>FAC_001, FAC_058, FAC_030, FAC_138</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FAC_124</t>
+          <t>FAC_118</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FAC_063</t>
+          <t>FAC_093, FAC_086, FAC_038</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUB_004</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FAC_040</t>
+          <t>FAC_005, FAC_038, FAC_029, FAC_133</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(2, 0), (2, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FAC_061</t>
+          <t>FAC_005, FAC_092, FAC_029, FAC_133</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>FAC_120</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>FAC_038, FAC_086, FAC_093</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FAC_013</t>
+          <t>FAC_058, FAC_042, FAC_011, FAC_029</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FAC_097</t>
+          <t>FAC_058, FAC_092, FAC_011, FAC_133</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(2, 4), (2, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUB_004</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FAC_096</t>
+          <t>FAC_129</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(0, 4), (0, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FAC_025</t>
+          <t>FAC_083, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>FAC_105, FAC_026, FAC_053, FAC_101</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>FAC_105, FAC_026, FAC_053, FAC_087</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(0, 2), (0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SUB_021, SUB_026</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
+          <t>FAC_031, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FAC_032</t>
+          <t>FAC_036, FAC_052, FAC_096, FAC_044</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(4, 2), (4, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FAC_030</t>
+          <t>FAC_036, FAC_052, FAC_096, FAC_075</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(0, 4), (0, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FAC_067</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>FAC_140, FAC_037, FAC_099</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FAC_086</t>
+          <t>FAC_125, FAC_065, FAC_052, FAC_102</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_093, FAC_038</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>FAC_125, FAC_065, FAC_052, FAC_135</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>(3, 2), (3, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_042, FAC_030, FAC_138</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>FAC_024, FAC_004, FAC_048, FAC_064</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
       <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_058, FAC_030, FAC_138</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>FAC_024, FAC_004, FAC_048, FAC_045</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
       <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>(1, 6), (1, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FAC_118</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>FAC_129</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
       <c r="F40" t="n">
         <v>2</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FAC_005</t>
+          <t>FAC_057, FAC_111, FAC_002, FAC_078</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FAC_029</t>
+          <t>FAC_057, FAC_111, FAC_002, FAC_023</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FAC_002</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+          <t>FAC_114</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FAC_093</t>
+          <t>FAC_002, FAC_019, FAC_126, FAC_057</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>(4, 6), (4, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FAC_093, FAC_086, FAC_038</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>FAC_002, FAC_003, FAC_126, FAC_059</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
       <c r="F45" t="n">
         <v>2</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_038, FAC_029, FAC_133</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>FAC_118</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
       <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_092, FAC_029, FAC_133</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>FAC_043, FAC_059, FAC_008, FAC_023</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="F47" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>(1, 4), (1, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FAC_120</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
+          <t>FAC_043, FAC_059, FAC_008, FAC_068</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FAC_058</t>
+          <t>FAC_128</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>(0, 2), (0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FAC_029</t>
+          <t>FAC_078, FAC_102, FAC_126, FAC_048</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FAC_060</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+          <t>FAC_078, FAC_102, FAC_126, FAC_064</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>(2, 2), (2, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FAC_038</t>
+          <t>FAC_119</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FAC_038, FAC_086, FAC_093</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>FAC_033, FAC_044, FAC_101, FAC_102</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>(3, 0), (3, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_042, FAC_011, FAC_029</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>FAC_033, FAC_105, FAC_101, FAC_036</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" t="n">
         <v>2</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>(2, 2), (2, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_092, FAC_011, FAC_133</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>FAC_065, FAC_096, FAC_098, FAC_007</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>(0, 6), (0, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FAC_129</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>FAC_065, FAC_096, FAC_098, FAC_087</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="n">
         <v>2</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FAC_104</t>
+          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>(2, 0), (2, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FAC_053</t>
+          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>(3, 0), (3, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FAC_054</t>
+          <t>FAC_040, FAC_062, FAC_051, FAC_081</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FAC_105</t>
+          <t>FAC_040, FAC_062, FAC_051, FAC_102</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FAC_083</t>
+          <t>FAC_012, FAC_062, FAC_081, FAC_098</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FAC_083, FAC_037, FAC_099</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>FAC_012, FAC_062, FAC_081, FAC_051</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" t="n">
         <v>2</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>(3, 2), (3, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_041</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>FAC_059, FAC_072, FAC_068</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" t="n">
         <v>2</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_052</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_087</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" t="n">
         <v>2</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_046</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FAC_069</t>
+          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FAC_036</t>
+          <t>FAC_120</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FAC_077</t>
+          <t>FAC_044, FAC_040, FAC_083, FAC_052</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FAC_096</t>
+          <t>FAC_044, FAC_062, FAC_083, FAC_014</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>(1, 2), (1, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_050, SUB_032</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FAC_031</t>
+          <t>FAC_092, FAC_071, FAC_125, FAC_073</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_050, SUB_033</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FAC_031, FAC_037, FAC_099</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>FAC_092, FAC_022, FAC_125, FAC_073</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" t="n">
         <v>2</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>(2, 4), (2, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_044</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>FAC_128</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" t="n">
         <v>2</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>(0, 0), (0, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_013, SUB_037</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_075</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_013, SUB_037</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FAC_021</t>
+          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>(0, 2), (0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_035</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FAC_131</t>
+          <t>FAC_107</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>(1, 6), (1, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_020</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FAC_100</t>
+          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_044</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FAC_125</t>
+          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>(2, 2), (2, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_034</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FAC_140</t>
+          <t>FAC_117</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>(4, 6), (4, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_018, SUB_068</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FAC_140, FAC_037, FAC_099</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>FAC_113, FAC_009, FAC_088</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
       <c r="F78" t="n">
         <v>2</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>(1, 0), (1, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_018, SUB_069</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_102</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>FAC_113, FAC_009, FAC_088</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
       <c r="F79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_013, SUB_006</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_135</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
       <c r="F80" t="n">
         <v>2</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>(0, 6), (0, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SUB_025, SUB_041, SUB_038</t>
+          <t>SUB_013, SUB_006</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
+          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>2</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(2, 0), (2, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_040</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FAC_047</t>
+          <t>FAC_088, FAC_050, FAC_121</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>(2, 6), (2, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_050</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FAC_024</t>
+          <t>FAC_044, FAC_121, FAC_000, FAC_136</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_030</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FAC_048</t>
+          <t>FAC_044, FAC_121, FAC_000, FAC_132</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>(0, 4), (0, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FAC_084</t>
+          <t>FAC_114</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>(4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_003</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_064</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>FAC_027, FAC_012, FAC_044</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
       <c r="F86" t="n">
         <v>2</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>(3, 6), (3, 7)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_010</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_045</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>FAC_041, FAC_090, FAC_102</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
       <c r="F87" t="n">
         <v>2</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>(4, 4), (4, 5)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_073</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FAC_129</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>FAC_110</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
       <c r="F88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_072</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FAC_103</t>
+          <t>FAC_109</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_000, SEC_001, SEC_006, SEC_007, SEC_010, SEC_013, SEC_014, SEC_015, SEC_018, SEC_021, SEC_022, SEC_023, SEC_024, SEC_026</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_054</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FAC_002</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>(0, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_002, SEC_003, SEC_004, SEC_005, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_017, SEC_019, SEC_020, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_055</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FAC_057</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>(0, 4)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_001, SEC_002, SEC_006, SEC_010, SEC_011, SEC_012, SEC_015, SEC_016, SEC_017, SEC_019, SEC_023, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_056</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FAC_098</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>(1, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_000, SEC_003, SEC_004, SEC_005, SEC_007, SEC_008, SEC_009, SEC_013, SEC_014, SEC_018, SEC_020, SEC_021, SEC_022, SEC_025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_057</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_078</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+          <t>FAC_141</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
       <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>(1, 4)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_008, SEC_011, SEC_013, SEC_014, SEC_020, SEC_021, SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_058</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_023</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+          <t>FAC_141</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
       <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>(2, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_000, SEC_003, SEC_007, SEC_009, SEC_010, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_022, SEC_023, SEC_027</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_059</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FAC_114</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
+          <t>FAC_141</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
       <c r="F95" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>(2, 4)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_003, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_016, SEC_020, SEC_021, SEC_023, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_060</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FAC_016</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>(3, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_015, SEC_017, SEC_018, SEC_019, SEC_022, SEC_024, SEC_026</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_061</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FAC_006</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>(3, 4)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_000, SEC_003, SEC_004, SEC_007, SEC_009, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_062</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>(4, 3)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_001, SEC_002, SEC_006, SEC_008, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_021, SEC_023, SEC_024, SEC_026</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_063</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FAC_053</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>(4, 4)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_038, SUB_041</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_019, FAC_126, FAC_057</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
+          <t>FAC_077, FAC_072, FAC_011, FAC_026</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_010, SEC_011, SEC_012</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_065, SUB_001, SUB_011</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_003, FAC_126, FAC_059</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
+          <t>FAC_082, FAC_074, FAC_121, FAC_139</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>4</v>
+      </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_019, SEC_020, SEC_021</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_021, SUB_026</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>FAC_118</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
+          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_025, SUB_041, SUB_038</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>FAC_038</t>
+          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
       <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_065, SUB_001, SUB_011</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>FAC_008</t>
+          <t>FAC_095, FAC_106, FAC_015, FAC_007, FAC_035, FAC_064</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
       <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>FAC_043</t>
+          <t>FAC_087</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>4</v>
       </c>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
       <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FAC_133</t>
+          <t>FAC_001</t>
         </is>
       </c>
       <c r="E106" t="n">
         <v>4</v>
       </c>
-      <c r="F106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
       <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_023</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+          <t>FAC_004</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3</v>
+      </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_068</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
+          <t>FAC_105</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3</v>
+      </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>FAC_128</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
+          <t>FAC_091</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>FAC_125</t>
+          <t>FAC_071</t>
         </is>
       </c>
       <c r="E110" t="n">
         <v>4</v>
       </c>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
       <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3211,1322 +3821,1428 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FAC_019</t>
+          <t>FAC_024</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v>3</v>
       </c>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
       <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_005</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
       <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>FAC_046</t>
+          <t>FAC_124</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v>4</v>
       </c>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
       <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_048</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr"/>
+          <t>FAC_063</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>4</v>
+      </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_004</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_064</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>FAC_040</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>4</v>
+      </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_012</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FAC_119</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+          <t>FAC_061</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3</v>
+      </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SUB_055, SUB_001, SUB_011</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>FAC_095, FAC_106, FAC_015, FAC_007, FAC_035, FAC_064</t>
+          <t>FAC_013</t>
         </is>
       </c>
       <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
       <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>FAC_108</t>
+          <t>FAC_097</t>
         </is>
       </c>
       <c r="E118" t="n">
         <v>4</v>
       </c>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
       <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_004</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>FAC_101</t>
+          <t>FAC_096</t>
         </is>
       </c>
       <c r="E119" t="n">
         <v>4</v>
       </c>
-      <c r="F119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
       <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_012</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FAC_018</t>
+          <t>FAC_025</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>3</v>
       </c>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
       <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FAC_033</t>
+          <t>FAC_032</t>
         </is>
       </c>
       <c r="E121" t="n">
         <v>4</v>
       </c>
-      <c r="F121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
       <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_028</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_044, FAC_101, FAC_102</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
+          <t>FAC_030</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_105, FAC_101, FAC_036</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
+          <t>FAC_067</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FAC_080</t>
+          <t>FAC_086</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
-      </c>
-      <c r="F124" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
       <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FAC_098</t>
+          <t>FAC_005</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>4</v>
       </c>
-      <c r="F125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
       <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_028</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>FAC_084</t>
+          <t>FAC_029</t>
         </is>
       </c>
       <c r="E126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
       <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FAC_065</t>
+          <t>FAC_002</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
-      </c>
-      <c r="F127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
       <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_007</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr"/>
+          <t>FAC_093</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_087</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+          <t>FAC_058</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>4</v>
+      </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_028</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FAC_079</t>
+          <t>FAC_029</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
-      </c>
-      <c r="F130" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
       <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FAC_014</t>
+          <t>FAC_060</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
       <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>FAC_099</t>
+          <t>FAC_038</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v>3</v>
       </c>
-      <c r="F132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
       <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>FAC_026</t>
+          <t>FAC_104</t>
         </is>
       </c>
       <c r="E133" t="n">
         <v>4</v>
       </c>
-      <c r="F133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
       <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr"/>
+          <t>FAC_053</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>4</v>
+      </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>FAC_054</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>FAC_056</t>
+          <t>FAC_105</t>
         </is>
       </c>
       <c r="E136" t="n">
         <v>4</v>
       </c>
-      <c r="F136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
       <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>FAC_051</t>
+          <t>FAC_083</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
-      </c>
-      <c r="F137" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
       <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>FAC_077</t>
+          <t>FAC_069</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
-      </c>
-      <c r="F138" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
       <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FAC_040</t>
+          <t>FAC_036</t>
         </is>
       </c>
       <c r="E139" t="n">
         <v>4</v>
       </c>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
       <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_081</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>FAC_077</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_102</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>FAC_096</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>4</v>
+      </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>FAC_017</t>
+          <t>FAC_031</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
       <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FAC_081</t>
+          <t>FAC_021</t>
         </is>
       </c>
       <c r="E143" t="n">
         <v>4</v>
       </c>
-      <c r="F143" t="inlineStr"/>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
       <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FAC_102</t>
+          <t>FAC_131</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F144" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
       <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>FAC_012</t>
+          <t>FAC_100</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
       <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_098</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
+          <t>FAC_125</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>4</v>
+      </c>
       <c r="F146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_051</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
+          <t>FAC_140</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SUB_051</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>FAC_022</t>
+          <t>FAC_047</t>
         </is>
       </c>
       <c r="E148" t="n">
         <v>4</v>
       </c>
-      <c r="F148" t="inlineStr"/>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
       <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SUB_045</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>FAC_094</t>
+          <t>FAC_024</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
       <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SUB_047</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>FAC_034</t>
+          <t>FAC_048</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
       <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SUB_048</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>FAC_068</t>
+          <t>FAC_084</t>
         </is>
       </c>
       <c r="E151" t="n">
         <v>4</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
       <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SUB_041</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>FAC_059</t>
+          <t>FAC_103</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
-      </c>
-      <c r="F152" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
       <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SUB_041</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>FAC_059, FAC_072, FAC_068</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
+          <t>FAC_002</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3</v>
+      </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SUB_052</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
+          <t>FAC_057</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>4</v>
+      </c>
       <c r="F154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SUB_046</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>FAC_098</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>4</v>
+      </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>FAC_120</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>FAC_016</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>4</v>
+      </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>FAC_116</t>
+          <t>FAC_006</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
-      </c>
-      <c r="F157" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
       <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FAC_083</t>
+          <t>FAC_126</t>
         </is>
       </c>
       <c r="E158" t="n">
         <v>4</v>
       </c>
-      <c r="F158" t="inlineStr"/>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
       <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>FAC_122</t>
+          <t>FAC_053</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
       <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>FAC_044</t>
+          <t>FAC_038</t>
         </is>
       </c>
       <c r="E160" t="n">
         <v>4</v>
       </c>
-      <c r="F160" t="inlineStr"/>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
       <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SUB_055</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>FAC_076</t>
+          <t>FAC_008</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>4</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
       <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_040, FAC_083, FAC_052</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>FAC_043</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>4</v>
+      </c>
       <c r="F162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_062, FAC_083, FAC_014</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>FAC_133</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4</v>
+      </c>
       <c r="F163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4536,84 +5252,78 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>FAC_091</t>
+          <t>FAC_125</t>
         </is>
       </c>
       <c r="E164" t="n">
         <v>4</v>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F164" t="n">
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>FAC_028</t>
+          <t>FAC_019</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>4</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SUB_031</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>FAC_070</t>
+          <t>FAC_126</t>
         </is>
       </c>
       <c r="E166" t="n">
         <v>4</v>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F166" t="n">
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4623,1175 +5333,1636 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>FAC_018</t>
+          <t>FAC_046</t>
         </is>
       </c>
       <c r="E167" t="n">
         <v>4</v>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="F167" t="n">
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_032</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_071, FAC_125, FAC_073</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>FAC_108</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>4</v>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_033</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_022, FAC_125, FAC_073</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>FAC_101</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>FAC_128</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+          <t>FAC_018</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SUB_056</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>FAC_127</t>
+          <t>FAC_033</t>
         </is>
       </c>
       <c r="E171" t="n">
         <v>4</v>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
       <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>FAC_085</t>
+          <t>FAC_080</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
-      </c>
-      <c r="F172" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
       <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>FAC_007</t>
+          <t>FAC_098</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
-      </c>
-      <c r="F173" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
       <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SUB_004</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>FAC_027</t>
+          <t>FAC_084</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>4</v>
-      </c>
-      <c r="F174" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
       <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
+          <t>FAC_065</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>4</v>
+      </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
+          <t>FAC_079</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>4</v>
+      </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SUB_019</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>FAC_000</t>
+          <t>FAC_014</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
       <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SUB_042</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>FAC_034</t>
+          <t>FAC_099</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>4</v>
-      </c>
-      <c r="F178" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
       <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SUB_043</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>FAC_020</t>
+          <t>FAC_026</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
-      </c>
-      <c r="F179" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
       <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SUB_000</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>FAC_112</t>
+          <t>FAC_056</t>
         </is>
       </c>
       <c r="E180" t="n">
         <v>4</v>
       </c>
-      <c r="F180" t="inlineStr"/>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
       <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SUB_035</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>FAC_107</t>
+          <t>FAC_051</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SUB_061</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>FAC_066</t>
+          <t>FAC_077</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
       <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SUB_020</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
+          <t>FAC_040</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>4</v>
+      </c>
       <c r="F183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SUB_044</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
+          <t>FAC_017</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>4</v>
+      </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>FAC_089</t>
+          <t>FAC_081</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
-      </c>
-      <c r="F185" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
       <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SUB_005</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>FAC_019</t>
+          <t>FAC_102</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4</v>
-      </c>
-      <c r="F186" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
       <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SUB_017</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>FAC_009</t>
+          <t>FAC_012</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
-      </c>
-      <c r="F187" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
       <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SUB_060</t>
+          <t>SUB_051</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>FAC_049</t>
+          <t>FAC_022</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3</v>
-      </c>
-      <c r="F188" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
       <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SUB_034</t>
+          <t>SUB_045</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>FAC_117</t>
+          <t>FAC_094</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SUB_057</t>
+          <t>SUB_047</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>FAC_104</t>
+          <t>FAC_034</t>
         </is>
       </c>
       <c r="E190" t="n">
         <v>3</v>
       </c>
-      <c r="F190" t="inlineStr"/>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
       <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_058</t>
+          <t>SUB_048</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>FAC_068</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>4</v>
+      </c>
       <c r="F191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_059</t>
+          <t>SUB_041</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>FAC_059</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr"/>
+          <t>FAC_116</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>4</v>
+      </c>
       <c r="F193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+          <t>FAC_083</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>4</v>
+      </c>
       <c r="F194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>FAC_000</t>
+          <t>FAC_122</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>4</v>
-      </c>
-      <c r="F195" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
       <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SUB_027</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>FAC_006</t>
+          <t>FAC_044</t>
         </is>
       </c>
       <c r="E196" t="n">
         <v>4</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
       <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SUB_022</t>
+          <t>SUB_065</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>FAC_065</t>
+          <t>FAC_076</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
-      </c>
-      <c r="F197" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
       <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SUB_040</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>FAC_088</t>
+          <t>FAC_091</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
-      </c>
-      <c r="F198" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
       <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SUB_040</t>
+          <t>SUB_049</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>FAC_088, FAC_050, FAC_121</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
+          <t>FAC_028</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>4</v>
+      </c>
       <c r="F199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_031</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>FAC_039</t>
+          <t>FAC_070</t>
         </is>
       </c>
       <c r="E200" t="n">
         <v>4</v>
       </c>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
       <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SUB_050</t>
+          <t>SUB_039</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_136</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>FAC_018</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>4</v>
+      </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SUB_030</t>
+          <t>SUB_066</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_132</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
+          <t>FAC_127</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>4</v>
+      </c>
       <c r="F202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>FAC_114</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>FAC_085</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
       <c r="F203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_012</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>FAC_123</t>
+          <t>FAC_007</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>4</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
       <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_004</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>FAC_041</t>
+          <t>FAC_027</t>
         </is>
       </c>
       <c r="E205" t="n">
         <v>4</v>
       </c>
-      <c r="F205" t="inlineStr"/>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
       <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_019</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>FAC_055</t>
+          <t>FAC_000</t>
         </is>
       </c>
       <c r="E206" t="n">
         <v>3</v>
       </c>
-      <c r="F206" t="inlineStr"/>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
       <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_042</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>FAC_062</t>
+          <t>FAC_034</t>
         </is>
       </c>
       <c r="E207" t="n">
         <v>4</v>
       </c>
-      <c r="F207" t="inlineStr"/>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
       <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SUB_007</t>
+          <t>SUB_043</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>FAC_068</t>
+          <t>FAC_020</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4</v>
-      </c>
-      <c r="F208" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
       <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SUB_003</t>
+          <t>SUB_000</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>FAC_027, FAC_012, FAC_044</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
+          <t>FAC_112</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4</v>
+      </c>
       <c r="F209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SUB_010</t>
+          <t>SUB_035</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>FAC_041, FAC_090, FAC_102</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
+          <t>FAC_107</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
       <c r="F210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SUB_063</t>
+          <t>SUB_071</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>FAC_110</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>(1, 7), (1, 8), (4, 1), (4, 2)</t>
-        </is>
-      </c>
+          <t>FAC_066</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>4</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
+        <v>188</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>SUB_012</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>FAC_089</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>189</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>SUB_005</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>FAC_019</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>4</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>190</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>SUB_017</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>FAC_009</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>3</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>191</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>SUB_070</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>FAC_049</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>3</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>192</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>SUB_034</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>FAC_117</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>194</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SEC_013</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SUB_067</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>FAC_104</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>199</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SEC_023</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>SUB_049</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>FAC_000</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>4</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>200</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SEC_023</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SUB_027</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>FAC_006</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>201</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SEC_023</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SUB_022</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>FAC_065</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>202</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SEC_023</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SUB_040</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>FAC_088</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>3</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>204</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SEC_023</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SUB_014</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>FAC_039</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>4</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>208</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SEC_009</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SUB_064</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>FAC_123</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>4</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>209</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SEC_009</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SUB_009</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>FAC_041</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>210</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SEC_009</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SUB_036</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>FAC_055</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
         <v>211</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>SUB_062</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>FAC_109</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>(2, 7), (2, 8), (5, 1), (5, 2)</t>
-        </is>
-      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SEC_009</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SUB_002</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>FAC_062</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>212</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SEC_009</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SUB_007</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>FAC_068</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>4</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -472,393 +472,393 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUB_038, SUB_041</t>
+          <t>SUB_073</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FAC_077, FAC_072, FAC_011, FAC_026</t>
+          <t>FAC_110</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUB_021, SUB_026</t>
+          <t>SUB_072</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
+          <t>FAC_109</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_018, SEC_019, SEC_020, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUB_025, SUB_041, SUB_038</t>
+          <t>SUB_054</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 3)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_000, SEC_003, SEC_006, SEC_007, SEC_010, SEC_013, SEC_014, SEC_015, SEC_017, SEC_021, SEC_022, SEC_023, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_055</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_046</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 4)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_000, SEC_002, SEC_004, SEC_006, SEC_007, SEC_010, SEC_011, SEC_012, SEC_017, SEC_018, SEC_020, SEC_022, SEC_023, SEC_025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_056</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_042</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 3)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_001, SEC_003, SEC_005, SEC_008, SEC_009, SEC_013, SEC_014, SEC_015, SEC_016, SEC_019, SEC_021, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_057</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_115</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_001, SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_011, SEC_013, SEC_014, SEC_020, SEC_022, SEC_023, SEC_024, SEC_027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_058</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(2, 3)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_000, SEC_002, SEC_003, SEC_005, SEC_008, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_021, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_059</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_005, SEC_006, SEC_009, SEC_010, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_021, SEC_023, SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_060</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_007, SEC_008, SEC_011, SEC_013, SEC_014, SEC_019, SEC_020, SEC_022, SEC_027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_061</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_086</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_005, SEC_008, SEC_015, SEC_016, SEC_017, SEC_019, SEC_021, SEC_022, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_062</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 3)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_018, SEC_020, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_063</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
+          <t>FAC_141</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_038, SUB_041</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
+          <t>FAC_077, FAC_072, FAC_011, FAC_026</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -869,27 +869,27 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_019, SEC_020, SEC_021</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_021, SUB_026</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
+          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -900,27 +900,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_025, SUB_041, SUB_038</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
+          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -931,27 +931,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_093, FAC_038</t>
+          <t>FAC_004, FAC_078, FAC_001, FAC_046</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -962,27 +962,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_042, FAC_030, FAC_138</t>
+          <t>FAC_004, FAC_078, FAC_001, FAC_042</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -993,27 +993,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_058, FAC_030, FAC_138</t>
+          <t>FAC_105, FAC_115</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_128</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FAC_093, FAC_086, FAC_038</t>
+          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1086,27 +1086,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_016, SUB_050</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_038, FAC_029, FAC_133</t>
+          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_092, FAC_029, FAC_133</t>
+          <t>FAC_005, FAC_086</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FAC_120</t>
+          <t>FAC_129</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FAC_038, FAC_086, FAC_093</t>
+          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_042, FAC_011, FAC_029</t>
+          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,27 +1241,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_092, FAC_011, FAC_133</t>
+          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_010, SUB_013</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1303,27 +1303,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FAC_083, FAC_037, FAC_099</t>
+          <t>FAC_086, FAC_093, FAC_038</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1340,21 +1340,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_101</t>
+          <t>FAC_001, FAC_042, FAC_030, FAC_138</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1371,21 +1371,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_087</t>
+          <t>FAC_001, FAC_058, FAC_030, FAC_138</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,27 +1396,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FAC_031, FAC_037, FAC_099</t>
+          <t>FAC_118</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1427,27 +1427,27 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_044</t>
+          <t>FAC_093, FAC_086, FAC_038</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1458,27 +1458,27 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_075</t>
+          <t>FAC_005, FAC_038, FAC_029, FAC_133</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1489,27 +1489,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FAC_140, FAC_037, FAC_099</t>
+          <t>FAC_005, FAC_092, FAC_029, FAC_133</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1520,27 +1520,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_102</t>
+          <t>FAC_120</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1551,27 +1551,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_135</t>
+          <t>FAC_038, FAC_086, FAC_093</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1582,27 +1582,27 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_064</t>
+          <t>FAC_058, FAC_042, FAC_011, FAC_029</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1613,27 +1613,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_050, SUB_029</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_045</t>
+          <t>FAC_058, FAC_092, FAC_011, FAC_133</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_021</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1675,27 +1675,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_078</t>
+          <t>FAC_083, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1706,27 +1706,27 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_023</t>
+          <t>FAC_105, FAC_026, FAC_053, FAC_101</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1737,27 +1737,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FAC_114</t>
+          <t>FAC_105, FAC_026, FAC_053, FAC_087</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1768,27 +1768,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_019, FAC_126, FAC_057</t>
+          <t>FAC_031, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1799,27 +1799,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_003, FAC_126, FAC_059</t>
+          <t>FAC_036, FAC_052, FAC_096, FAC_044</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1830,27 +1830,27 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_036, FAC_052, FAC_096, FAC_075</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1861,27 +1861,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_023</t>
+          <t>FAC_140, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1892,27 +1892,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_068</t>
+          <t>FAC_125, FAC_065, FAC_052, FAC_102</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1923,27 +1923,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_125, FAC_065, FAC_052, FAC_135</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1954,17 +1954,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_048</t>
+          <t>FAC_024, FAC_004, FAC_048, FAC_064</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1985,17 +1985,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_064</t>
+          <t>FAC_024, FAC_004, FAC_048, FAC_045</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FAC_119</t>
+          <t>FAC_129</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2047,27 +2047,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_044, FAC_101, FAC_102</t>
+          <t>FAC_057, FAC_111, FAC_002, FAC_078</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2078,27 +2078,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_105, FAC_101, FAC_036</t>
+          <t>FAC_057, FAC_111, FAC_002, FAC_023</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2115,21 +2115,21 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_007</t>
+          <t>FAC_114</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2140,27 +2140,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_087</t>
+          <t>FAC_002, FAC_019, FAC_126, FAC_057</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2171,27 +2171,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
+          <t>FAC_002, FAC_003, FAC_126, FAC_059</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2202,27 +2202,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
+          <t>FAC_118</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2233,27 +2233,27 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_081</t>
+          <t>FAC_043, FAC_059, FAC_008, FAC_023</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2264,27 +2264,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_102</t>
+          <t>FAC_043, FAC_059, FAC_008, FAC_068</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2295,27 +2295,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_098</t>
+          <t>FAC_128</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2326,27 +2326,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_051</t>
+          <t>FAC_078, FAC_102, FAC_126, FAC_048</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SUB_041</t>
+          <t>SUB_016, SUB_024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FAC_059, FAC_072, FAC_068</t>
+          <t>FAC_078, FAC_102, FAC_126, FAC_064</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2388,27 +2388,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SUB_052</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
+          <t>FAC_119</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2419,27 +2419,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SUB_046</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
+          <t>FAC_033, FAC_044, FAC_101, FAC_102</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2450,27 +2450,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FAC_120</t>
+          <t>FAC_033, FAC_105, FAC_101, FAC_036</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2481,17 +2481,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_040, FAC_083, FAC_052</t>
+          <t>FAC_065, FAC_096, FAC_098, FAC_007</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_062, FAC_083, FAC_014</t>
+          <t>FAC_065, FAC_096, FAC_098, FAC_087</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2543,27 +2543,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_032</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_071, FAC_125, FAC_073</t>
+          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2574,27 +2574,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_033</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_022, FAC_125, FAC_073</t>
+          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2605,27 +2605,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_040, FAC_062, FAC_051, FAC_081</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
+          <t>FAC_040, FAC_062, FAC_051, FAC_102</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2667,27 +2667,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
+          <t>FAC_012, FAC_062, FAC_081, FAC_098</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2698,27 +2698,27 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SUB_035</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FAC_107</t>
+          <t>FAC_012, FAC_062, FAC_081, FAC_051</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2729,27 +2729,27 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUB_020</t>
+          <t>SUB_041</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_059, FAC_072, FAC_068</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2760,27 +2760,27 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SUB_044</t>
+          <t>SUB_052</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2791,27 +2791,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SUB_034</t>
+          <t>SUB_046</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FAC_117</t>
+          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2822,27 +2822,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_022</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_068</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
+          <t>FAC_120</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2853,27 +2853,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_069</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
+          <t>FAC_044, FAC_040, FAC_083, FAC_052</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2884,27 +2884,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_003, SUB_010</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
+          <t>FAC_044, FAC_062, FAC_083, FAC_014</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2915,27 +2915,27 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_050, SUB_032</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
+          <t>FAC_092, FAC_071, FAC_125, FAC_073</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2952,21 +2952,21 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SUB_040</t>
+          <t>SUB_050, SUB_033</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FAC_088, FAC_050, FAC_121</t>
+          <t>FAC_092, FAC_022, FAC_125, FAC_073</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2977,27 +2977,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_026</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUB_050</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_136</t>
+          <t>FAC_128</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3008,27 +3008,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SUB_030</t>
+          <t>SUB_013, SUB_037</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_132</t>
+          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3039,27 +3039,27 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_013, SUB_037</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FAC_114</t>
+          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3070,27 +3070,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SUB_003</t>
+          <t>SUB_035</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FAC_027, FAC_012, FAC_044</t>
+          <t>FAC_107</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3101,27 +3101,27 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SUB_010</t>
+          <t>SUB_020</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FAC_041, FAC_090, FAC_102</t>
+          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3132,379 +3132,379 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_027</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SUB_073</t>
+          <t>SUB_044</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FAC_110</t>
+          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SUB_072</t>
+          <t>SUB_034</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FAC_109</t>
+          <t>FAC_117</t>
         </is>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_006, SEC_007, SEC_010, SEC_013, SEC_014, SEC_015, SEC_018, SEC_021, SEC_022, SEC_023, SEC_024, SEC_026</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_018, SUB_068</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_113, FAC_009, FAC_088</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(0, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_003, SEC_004, SEC_005, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_017, SEC_019, SEC_020, SEC_025, SEC_027</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SUB_055</t>
+          <t>SUB_018, SUB_069</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_113, FAC_009, FAC_088</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(0, 4)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_006, SEC_010, SEC_011, SEC_012, SEC_015, SEC_016, SEC_017, SEC_019, SEC_023, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SUB_056</t>
+          <t>SUB_013, SUB_006</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(1, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_004, SEC_005, SEC_007, SEC_008, SEC_009, SEC_013, SEC_014, SEC_018, SEC_020, SEC_021, SEC_022, SEC_025</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SUB_057</t>
+          <t>SUB_013, SUB_006</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 4)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_008, SEC_011, SEC_013, SEC_014, SEC_020, SEC_021, SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SUB_058</t>
+          <t>SUB_040</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_088, FAC_050, FAC_121</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_007, SEC_009, SEC_010, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_022, SEC_023, SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SUB_059</t>
+          <t>SUB_050</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_044, FAC_121, FAC_000, FAC_136</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SEC_003, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_016, SEC_020, SEC_021, SEC_023, SEC_025, SEC_027</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SUB_060</t>
+          <t>SUB_030</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_044, FAC_121, FAC_000, FAC_132</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_015, SEC_017, SEC_018, SEC_019, SEC_022, SEC_024, SEC_026</t>
+          <t>SEC_023</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SUB_061</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_114</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(3, 4)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_004, SEC_007, SEC_009, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_025, SEC_027</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SUB_062</t>
+          <t>SUB_003</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_027, FAC_012, FAC_044</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_006, SEC_008, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_021, SEC_023, SEC_024, SEC_026</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SUB_063</t>
+          <t>SUB_010</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_041, FAC_090, FAC_102</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_018, SEC_019, SEC_020, SEC_024, SEC_025</t>
+          <t>SEC_002, SEC_003, SEC_005, SEC_008, SEC_011, SEC_012, SEC_013, SEC_015, SEC_016, SEC_017, SEC_018, SEC_022, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_006, SEC_007, SEC_010, SEC_013, SEC_014, SEC_015, SEC_017, SEC_021, SEC_022, SEC_023, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_014, SEC_019, SEC_020, SEC_021, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_004, SEC_006, SEC_007, SEC_010, SEC_011, SEC_012, SEC_017, SEC_018, SEC_020, SEC_022, SEC_023, SEC_025</t>
+          <t>SEC_001, SEC_003, SEC_004, SEC_006, SEC_007, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_016, SEC_017, SEC_020, SEC_022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_005, SEC_008, SEC_009, SEC_013, SEC_014, SEC_015, SEC_016, SEC_019, SEC_021, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_005, SEC_008, SEC_009, SEC_015, SEC_018, SEC_019, SEC_021, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_011, SEC_013, SEC_014, SEC_020, SEC_022, SEC_023, SEC_024, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_009, SEC_010, SEC_011, SEC_015, SEC_021, SEC_023, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_003, SEC_005, SEC_008, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_021, SEC_025, SEC_026</t>
+          <t>SEC_005, SEC_006, SEC_007, SEC_008, SEC_012, SEC_013, SEC_014, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_005, SEC_006, SEC_009, SEC_010, SEC_012, SEC_015, SEC_016, SEC_017, SEC_018, SEC_021, SEC_023, SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_010, SEC_012, SEC_014, SEC_015, SEC_016, SEC_019, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_007, SEC_008, SEC_011, SEC_013, SEC_014, SEC_019, SEC_020, SEC_022, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_007, SEC_008, SEC_009, SEC_011, SEC_013, SEC_017, SEC_018, SEC_020, SEC_021, SEC_022, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_005, SEC_008, SEC_015, SEC_016, SEC_017, SEC_019, SEC_021, SEC_022, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_013, SEC_018, SEC_019, SEC_020, SEC_021, SEC_024, SEC_027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_018, SEC_020, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_002, SEC_003, SEC_004, SEC_010, SEC_011, SEC_012, SEC_014, SEC_015, SEC_016, SEC_017, SEC_022, SEC_023, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_003, SEC_005, SEC_008, SEC_011, SEC_012, SEC_013, SEC_015, SEC_016, SEC_017, SEC_018, SEC_022, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_007, SEC_008, SEC_010, SEC_012, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_021, SEC_025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_004, SEC_006, SEC_007, SEC_009, SEC_010, SEC_014, SEC_019, SEC_020, SEC_021, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_003, SEC_005, SEC_006, SEC_009, SEC_011, SEC_014, SEC_016, SEC_020, SEC_022, SEC_023, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_004, SEC_006, SEC_007, SEC_010, SEC_011, SEC_012, SEC_013, SEC_014, SEC_016, SEC_017, SEC_020, SEC_022</t>
+          <t>SEC_001, SEC_005, SEC_006, SEC_007, SEC_010, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_005, SEC_008, SEC_009, SEC_015, SEC_018, SEC_019, SEC_021, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_003, SEC_004, SEC_008, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_021, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_009, SEC_010, SEC_011, SEC_015, SEC_021, SEC_023, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_011, SEC_013, SEC_018, SEC_023, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_005, SEC_006, SEC_007, SEC_008, SEC_012, SEC_013, SEC_014, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_024</t>
+          <t>SEC_000, SEC_003, SEC_007, SEC_009, SEC_012, SEC_014, SEC_015, SEC_016, SEC_017, SEC_019, SEC_020, SEC_021, SEC_022, SEC_026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_010, SEC_012, SEC_014, SEC_015, SEC_016, SEC_019, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_005, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_022, SEC_023, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_007, SEC_008, SEC_009, SEC_011, SEC_013, SEC_017, SEC_018, SEC_020, SEC_021, SEC_022, SEC_026, SEC_027</t>
+          <t>SEC_004, SEC_006, SEC_007, SEC_008, SEC_010, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_013, SEC_018, SEC_019, SEC_020, SEC_021, SEC_024, SEC_027</t>
+          <t>SEC_000, SEC_003, SEC_006, SEC_007, SEC_008, SEC_009, SEC_011, SEC_014, SEC_016, SEC_019, SEC_020, SEC_021, SEC_022, SEC_026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_003, SEC_004, SEC_010, SEC_011, SEC_012, SEC_014, SEC_015, SEC_016, SEC_017, SEC_022, SEC_023, SEC_025, SEC_026</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_010, SEC_012, SEC_013, SEC_015, SEC_017, SEC_018, SEC_023, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FAC_110</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -517,7 +517,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FAC_109</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_007, SEC_008, SEC_010, SEC_012, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_021, SEC_025</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_010, SEC_014, SEC_016, SEC_017, SEC_019, SEC_023, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_005, SEC_006, SEC_009, SEC_011, SEC_014, SEC_016, SEC_020, SEC_022, SEC_023, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_013, SEC_015, SEC_018, SEC_020, SEC_021, SEC_022, SEC_024, SEC_026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_005, SEC_006, SEC_007, SEC_010, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024</t>
+          <t>SEC_000, SEC_002, SEC_005, SEC_008, SEC_010, SEC_012, SEC_014, SEC_015, SEC_018, SEC_020, SEC_022, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_003, SEC_004, SEC_008, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_021, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_003, SEC_004, SEC_006, SEC_007, SEC_009, SEC_011, SEC_013, SEC_016, SEC_017, SEC_019, SEC_021, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_011, SEC_013, SEC_018, SEC_023, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_007, SEC_009, SEC_013, SEC_015, SEC_017, SEC_019, SEC_020, SEC_021, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_007, SEC_009, SEC_012, SEC_014, SEC_015, SEC_016, SEC_017, SEC_019, SEC_020, SEC_021, SEC_022, SEC_026</t>
+          <t>SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_011, SEC_012, SEC_014, SEC_016, SEC_018, SEC_022, SEC_023, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_005, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_022, SEC_023, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_003, SEC_009, SEC_010, SEC_011, SEC_012, SEC_014, SEC_017, SEC_019, SEC_021, SEC_022, SEC_023, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_004, SEC_006, SEC_007, SEC_008, SEC_010, SEC_013, SEC_015, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_013, SEC_015, SEC_016, SEC_018, SEC_020, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_006, SEC_007, SEC_008, SEC_009, SEC_011, SEC_014, SEC_016, SEC_019, SEC_020, SEC_021, SEC_022, SEC_026</t>
+          <t>SEC_000, SEC_004, SEC_006, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_013, SEC_015, SEC_016, SEC_018, SEC_020, SEC_026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_010, SEC_012, SEC_013, SEC_015, SEC_017, SEC_018, SEC_023, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_010, SEC_014, SEC_017, SEC_019, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FAC_141</t>
+          <t>FAC_139</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_115</t>
+          <t>FAC_105, FAC_113</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_126</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_127</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
+          <t>FAC_063, FAC_138, FAC_054, FAC_089</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_140, FAC_054, FAC_089</t>
+          <t>FAC_063, FAC_138, FAC_054, FAC_089</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_042, FAC_030, FAC_138</t>
+          <t>FAC_001, FAC_042, FAC_030, FAC_136</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_058, FAC_030, FAC_138</t>
+          <t>FAC_001, FAC_058, FAC_030, FAC_136</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_116</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_038, FAC_029, FAC_133</t>
+          <t>FAC_005, FAC_038, FAC_029, FAC_131</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_092, FAC_029, FAC_133</t>
+          <t>FAC_005, FAC_092, FAC_029, FAC_131</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FAC_120</t>
+          <t>FAC_118</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_092, FAC_011, FAC_133</t>
+          <t>FAC_058, FAC_092, FAC_011, FAC_131</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_127</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FAC_140, FAC_037, FAC_099</t>
+          <t>FAC_138, FAC_037, FAC_099</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_102</t>
+          <t>FAC_123, FAC_065, FAC_052, FAC_102</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FAC_125, FAC_065, FAC_052, FAC_135</t>
+          <t>FAC_123, FAC_065, FAC_052, FAC_133</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_127</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_078</t>
+          <t>FAC_057, FAC_109, FAC_002, FAC_078</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_111, FAC_002, FAC_023</t>
+          <t>FAC_057, FAC_109, FAC_002, FAC_023</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FAC_114</t>
+          <t>FAC_112</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_019, FAC_126, FAC_057</t>
+          <t>FAC_002, FAC_019, FAC_124, FAC_057</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_003, FAC_126, FAC_059</t>
+          <t>FAC_002, FAC_003, FAC_124, FAC_059</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_116</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_126</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_048</t>
+          <t>FAC_078, FAC_102, FAC_124, FAC_048</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_126, FAC_064</t>
+          <t>FAC_078, FAC_102, FAC_124, FAC_064</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FAC_119</t>
+          <t>FAC_117</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
+          <t>FAC_022, FAC_132, FAC_094, FAC_016</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_134, FAC_094, FAC_016</t>
+          <t>FAC_022, FAC_132, FAC_094, FAC_016</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FAC_120</t>
+          <t>FAC_118</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_071, FAC_125, FAC_073</t>
+          <t>FAC_092, FAC_071, FAC_123, FAC_073</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_022, FAC_125, FAC_073</t>
+          <t>FAC_092, FAC_022, FAC_123, FAC_073</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FAC_128</t>
+          <t>FAC_126</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
+          <t>FAC_007, FAC_120, FAC_085, FAC_077</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_122, FAC_085, FAC_077</t>
+          <t>FAC_007, FAC_120, FAC_085, FAC_077</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_128, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FAC_130, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_128, FAC_031, FAC_020, FAC_093</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FAC_117</t>
+          <t>FAC_115</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
+          <t>FAC_111, FAC_009, FAC_088</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FAC_113, FAC_009, FAC_088</t>
+          <t>FAC_111, FAC_009, FAC_088</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
+          <t>FAC_089, FAC_047, FAC_019, FAC_135</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_137</t>
+          <t>FAC_089, FAC_047, FAC_019, FAC_135</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FAC_088, FAC_050, FAC_121</t>
+          <t>FAC_088, FAC_050, FAC_119</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_136</t>
+          <t>FAC_044, FAC_119, FAC_000, FAC_134</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_121, FAC_000, FAC_132</t>
+          <t>FAC_044, FAC_119, FAC_000, FAC_130</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FAC_114</t>
+          <t>FAC_112</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FAC_082, FAC_074, FAC_121, FAC_139</t>
+          <t>FAC_082, FAC_074, FAC_119, FAC_137</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>FAC_124</t>
+          <t>FAC_122</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FAC_131</t>
+          <t>FAC_129</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FAC_125</t>
+          <t>FAC_123</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>FAC_140</t>
+          <t>FAC_138</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_124</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>FAC_133</t>
+          <t>FAC_131</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>FAC_125</t>
+          <t>FAC_123</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_124</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>FAC_116</t>
+          <t>FAC_114</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>FAC_122</t>
+          <t>FAC_120</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>FAC_127</t>
+          <t>FAC_125</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>FAC_112</t>
+          <t>FAC_110</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>FAC_117</t>
+          <t>FAC_115</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>FAC_123</t>
+          <t>FAC_121</t>
         </is>
       </c>
       <c r="E223" t="n">

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_010, SEC_014, SEC_016, SEC_017, SEC_019, SEC_023, SEC_025, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_007, SEC_009, SEC_010, SEC_011, SEC_012, SEC_016, SEC_017, SEC_021, SEC_025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_013, SEC_015, SEC_018, SEC_020, SEC_021, SEC_022, SEC_024, SEC_026</t>
+          <t>SEC_005, SEC_006, SEC_008, SEC_013, SEC_014, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_005, SEC_008, SEC_010, SEC_012, SEC_014, SEC_015, SEC_018, SEC_020, SEC_022, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_003, SEC_010, SEC_011, SEC_012, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_004, SEC_006, SEC_007, SEC_009, SEC_011, SEC_013, SEC_016, SEC_017, SEC_019, SEC_021, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_013, SEC_014, SEC_016, SEC_017, SEC_021, SEC_026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_007, SEC_009, SEC_013, SEC_015, SEC_017, SEC_019, SEC_020, SEC_021, SEC_024, SEC_025</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_007, SEC_009, SEC_012, SEC_013, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_011, SEC_012, SEC_014, SEC_016, SEC_018, SEC_022, SEC_023, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_004, SEC_006, SEC_008, SEC_010, SEC_011, SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_009, SEC_010, SEC_011, SEC_012, SEC_014, SEC_017, SEC_019, SEC_021, SEC_022, SEC_023, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_006, SEC_008, SEC_010, SEC_013, SEC_014, SEC_015, SEC_016, SEC_017, SEC_019, SEC_020, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_013, SEC_015, SEC_016, SEC_018, SEC_020, SEC_024, SEC_025</t>
+          <t>SEC_001, SEC_003, SEC_004, SEC_005, SEC_007, SEC_009, SEC_011, SEC_012, SEC_018, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_006, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_013, SEC_015, SEC_016, SEC_018, SEC_020, SEC_026</t>
+          <t>SEC_001, SEC_004, SEC_005, SEC_006, SEC_008, SEC_011, SEC_013, SEC_014, SEC_016, SEC_018, SEC_022, SEC_024, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_010, SEC_014, SEC_017, SEC_019, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_003, SEC_007, SEC_009, SEC_010, SEC_012, SEC_015, SEC_017, SEC_019, SEC_020, SEC_021, SEC_023, SEC_025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_007, SEC_009, SEC_010, SEC_011, SEC_012, SEC_016, SEC_017, SEC_021, SEC_025</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_004, SEC_009, SEC_010, SEC_011, SEC_014, SEC_017, SEC_018, SEC_020, SEC_021, SEC_024, SEC_026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_005, SEC_006, SEC_008, SEC_013, SEC_014, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_005, SEC_006, SEC_007, SEC_008, SEC_012, SEC_013, SEC_015, SEC_016, SEC_019, SEC_022, SEC_023, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_010, SEC_011, SEC_012, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_023, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_000, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_013, SEC_014, SEC_016, SEC_017, SEC_021, SEC_023, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_013, SEC_014, SEC_016, SEC_017, SEC_021, SEC_026</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_009, SEC_010, SEC_011, SEC_012, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_007, SEC_009, SEC_012, SEC_013, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_025</t>
+          <t>SEC_000, SEC_001, SEC_003, SEC_005, SEC_006, SEC_010, SEC_013, SEC_014, SEC_015, SEC_019, SEC_020, SEC_021, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_006, SEC_008, SEC_010, SEC_011, SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_002, SEC_004, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_017, SEC_018, SEC_022, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_006, SEC_008, SEC_010, SEC_013, SEC_014, SEC_015, SEC_016, SEC_017, SEC_019, SEC_020, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_006, SEC_007, SEC_008, SEC_012, SEC_015, SEC_017, SEC_019, SEC_020, SEC_022, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_004, SEC_005, SEC_007, SEC_009, SEC_011, SEC_012, SEC_018, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_001, SEC_003, SEC_004, SEC_005, SEC_009, SEC_010, SEC_011, SEC_013, SEC_014, SEC_016, SEC_018, SEC_021, SEC_023, SEC_026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_004, SEC_005, SEC_006, SEC_008, SEC_011, SEC_013, SEC_014, SEC_016, SEC_018, SEC_022, SEC_024, SEC_026, SEC_027</t>
+          <t>SEC_002, SEC_003, SEC_007, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_018, SEC_019, SEC_022, SEC_023, SEC_024, SEC_025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_003, SEC_007, SEC_009, SEC_010, SEC_012, SEC_015, SEC_017, SEC_019, SEC_020, SEC_021, SEC_023, SEC_025</t>
+          <t>SEC_000, SEC_001, SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_013, SEC_015, SEC_017, SEC_020, SEC_021, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(1, 2), (1, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_004, SEC_009, SEC_010, SEC_011, SEC_014, SEC_017, SEC_018, SEC_020, SEC_021, SEC_024, SEC_026</t>
+          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_011, SEC_012, SEC_014, SEC_015, SEC_016, SEC_018, SEC_019, SEC_021, SEC_023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_005, SEC_006, SEC_007, SEC_008, SEC_012, SEC_013, SEC_015, SEC_016, SEC_019, SEC_022, SEC_023, SEC_025, SEC_027</t>
+          <t>SEC_000, SEC_003, SEC_007, SEC_008, SEC_009, SEC_010, SEC_013, SEC_017, SEC_020, SEC_022, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_013, SEC_014, SEC_016, SEC_017, SEC_021, SEC_023, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_007, SEC_008, SEC_010, SEC_011, SEC_012, SEC_013, SEC_019, SEC_024, SEC_025, SEC_027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_009, SEC_010, SEC_011, SEC_012, SEC_015, SEC_018, SEC_019, SEC_020, SEC_022, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_004, SEC_006, SEC_009, SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_020, SEC_021, SEC_022, SEC_023, SEC_026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_003, SEC_005, SEC_006, SEC_010, SEC_013, SEC_014, SEC_015, SEC_019, SEC_020, SEC_021, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_001, SEC_002, SEC_005, SEC_009, SEC_012, SEC_014, SEC_016, SEC_018, SEC_019, SEC_020, SEC_022, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_004, SEC_007, SEC_008, SEC_009, SEC_011, SEC_012, SEC_016, SEC_017, SEC_018, SEC_022, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_003, SEC_004, SEC_006, SEC_007, SEC_008, SEC_010, SEC_011, SEC_013, SEC_015, SEC_017, SEC_021, SEC_023, SEC_024, SEC_027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_002, SEC_006, SEC_007, SEC_008, SEC_012, SEC_015, SEC_017, SEC_019, SEC_020, SEC_022, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_006, SEC_009, SEC_013, SEC_016, SEC_017, SEC_020, SEC_021, SEC_024, SEC_025, SEC_026, SEC_027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_003, SEC_004, SEC_005, SEC_009, SEC_010, SEC_011, SEC_013, SEC_014, SEC_016, SEC_018, SEC_021, SEC_023, SEC_026</t>
+          <t>SEC_000, SEC_004, SEC_005, SEC_007, SEC_008, SEC_010, SEC_011, SEC_012, SEC_014, SEC_015, SEC_018, SEC_019, SEC_022, SEC_023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_002, SEC_003, SEC_007, SEC_009, SEC_011, SEC_012, SEC_014, SEC_016, SEC_018, SEC_019, SEC_022, SEC_023, SEC_024, SEC_025</t>
+          <t>SEC_000, SEC_004, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_013, SEC_017, SEC_020, SEC_021, SEC_022, SEC_027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_004, SEC_005, SEC_006, SEC_008, SEC_010, SEC_013, SEC_015, SEC_017, SEC_020, SEC_021, SEC_026, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_012, SEC_014, SEC_015, SEC_016, SEC_018, SEC_019, SEC_023, SEC_024, SEC_025, SEC_026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(4, 0), (4, 1)</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(0, 4), (0, 5)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 4), (0, 5)</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(2, 4), (2, 5)</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(3, 6), (3, 7)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(4, 6), (4, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(3, 2), (3, 3)</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(4, 4), (4, 5)</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(1, 4), (1, 5)</t>
+          <t>(1, 0), (1, 1)</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(2, 4), (2, 5)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(4, 4), (4, 5)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 4), (3, 5)</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>

--- a/data/encoded_data.xlsx
+++ b/data/encoded_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019, SEC_020, SEC_021, SEC_022, SEC_023, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_007, SEC_010, SEC_012, SEC_005, SEC_017, SEC_004, SEC_011, SEC_013, SEC_018, SEC_019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUB_073</t>
+          <t>SUB_000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,27 +497,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0, 6), (0, 7), (3, 0), (3, 1)</t>
+          <t>(0, 7), (1, 6), (3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_012, SEC_013</t>
+          <t>SEC_014, SEC_004, SEC_013, SEC_015, SEC_012, SEC_010, SEC_017, SEC_006, SEC_007, SEC_003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SUB_072</t>
+          <t>SUB_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,27 +528,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7), (4, 0), (4, 1)</t>
+          <t>(1, 0), (2, 1), (2, 6), (2, 7)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_004, SEC_005, SEC_006, SEC_011, SEC_012, SEC_014, SEC_015, SEC_016, SEC_018, SEC_019, SEC_021, SEC_023</t>
+          <t>SEC_017, SEC_002, SEC_010, SEC_012, SEC_013, SEC_019, SEC_014, SEC_015, SEC_000, SEC_016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SUB_054</t>
+          <t>SUB_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -559,27 +559,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(0, 3)</t>
+          <t>(0, 1), (3, 1), (4, 1), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_003, SEC_007, SEC_008, SEC_009, SEC_010, SEC_013, SEC_017, SEC_020, SEC_022, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_002, SEC_003, SEC_004, SEC_005, SEC_007, SEC_008, SEC_010, SEC_011, SEC_014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SUB_055</t>
+          <t>SUB_003</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -590,27 +590,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0, 4)</t>
+          <t>(0, 3)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>219</v>
+        <v>145</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_007, SEC_008, SEC_010, SEC_011, SEC_012, SEC_013, SEC_019, SEC_024, SEC_025, SEC_027</t>
+          <t>SEC_001, SEC_006, SEC_009, SEC_012, SEC_013, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SUB_056</t>
+          <t>SUB_004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -621,27 +621,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(1, 3)</t>
+          <t>(0, 4)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_006, SEC_009, SEC_014, SEC_015, SEC_016, SEC_017, SEC_018, SEC_020, SEC_021, SEC_022, SEC_023, SEC_026</t>
+          <t>SEC_000, SEC_001, SEC_003, SEC_004, SEC_005, SEC_007, SEC_010, SEC_011, SEC_013, SEC_019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SUB_057</t>
+          <t>SUB_005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -652,27 +652,27 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(1, 4)</t>
+          <t>(1, 3)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_005, SEC_009, SEC_012, SEC_014, SEC_016, SEC_018, SEC_019, SEC_020, SEC_022, SEC_025, SEC_026</t>
+          <t>SEC_002, SEC_006, SEC_008, SEC_009, SEC_012, SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SUB_058</t>
+          <t>SUB_006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -683,27 +683,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(2, 3)</t>
+          <t>(1, 4)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEC_003, SEC_004, SEC_006, SEC_007, SEC_008, SEC_010, SEC_011, SEC_013, SEC_015, SEC_017, SEC_021, SEC_023, SEC_024, SEC_027</t>
+          <t>SEC_001, SEC_002, SEC_005, SEC_006, SEC_007, SEC_010, SEC_012, SEC_013, SEC_014, SEC_017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SUB_059</t>
+          <t>SUB_007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -714,27 +714,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(2, 4)</t>
+          <t>(2, 3)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_006, SEC_009, SEC_013, SEC_016, SEC_017, SEC_020, SEC_021, SEC_024, SEC_025, SEC_026, SEC_027</t>
+          <t>SEC_000, SEC_003, SEC_004, SEC_008, SEC_009, SEC_011, SEC_015, SEC_016, SEC_018, SEC_019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SUB_060</t>
+          <t>SUB_008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -745,27 +745,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(3, 3)</t>
+          <t>(2, 4)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_005, SEC_007, SEC_008, SEC_010, SEC_011, SEC_012, SEC_014, SEC_015, SEC_018, SEC_019, SEC_022, SEC_023</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_009, SEC_011, SEC_015, SEC_016, SEC_017, SEC_018, SEC_019</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUB_061</t>
+          <t>SUB_009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -776,27 +776,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(3, 4)</t>
+          <t>(3, 3)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_004, SEC_006, SEC_007, SEC_008, SEC_009, SEC_010, SEC_011, SEC_013, SEC_017, SEC_020, SEC_021, SEC_022, SEC_027</t>
+          <t>SEC_000, SEC_004, SEC_005, SEC_006, SEC_007, SEC_008, SEC_010, SEC_012, SEC_013, SEC_014</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUB_062</t>
+          <t>SUB_010</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -807,27 +807,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(4, 3)</t>
+          <t>(3, 4)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SEC_001, SEC_002, SEC_003, SEC_005, SEC_012, SEC_014, SEC_015, SEC_016, SEC_018, SEC_019, SEC_023, SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_000, SEC_006, SEC_008, SEC_009, SEC_012, SEC_013, SEC_015, SEC_016, SEC_017, SEC_018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SUB_063</t>
+          <t>SUB_011</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FAC_139</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -838,58 +838,58 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(4, 4)</t>
+          <t>(4, 3)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_001, SEC_002, SEC_003, SEC_004, SEC_005, SEC_007, SEC_010, SEC_011, SEC_014, SEC_019</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SUB_038, SUB_041</t>
+          <t>SUB_012</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FAC_077, FAC_072, FAC_011, FAC_026</t>
+          <t>FAC_042</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(4, 2), (4, 3)</t>
+          <t>(4, 4)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SUB_021, SUB_026</t>
+          <t>SUB_058, SUB_072</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
+          <t>FAC_024, FAC_000, FAC_023</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -900,27 +900,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(0, 2), (0, 3)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SUB_025, SUB_041, SUB_038</t>
+          <t>SUB_070</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
+          <t>FAC_041, FAC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -931,27 +931,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_068</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_046</t>
+          <t>FAC_012, FAC_020, FAC_014, FAC_007</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -962,27 +962,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(0, 0), (0, 1)</t>
+          <t>(3, 6), (3, 7)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_072</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FAC_004, FAC_078, FAC_001, FAC_042</t>
+          <t>FAC_025, FAC_018</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -999,21 +999,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_113</t>
+          <t>FAC_039</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(1, 0), (1, 1)</t>
+          <t>(0, 6), (0, 7)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_067</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_011</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1055,27 +1055,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(4, 2), (4, 3)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_059</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+          <t>FAC_037, FAC_018</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1086,27 +1086,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(2, 0), (2, 1)</t>
+          <t>(1, 6), (1, 7)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_050</t>
+          <t>SUB_047</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_003, FAC_071, FAC_046</t>
+          <t>FAC_017, FAC_008</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1117,27 +1117,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(0, 2), (0, 3)</t>
+          <t>(2, 0), (2, 1)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_067, SUB_033</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_086</t>
+          <t>FAC_031, FAC_025, FAC_039</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,27 +1148,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(3, 4), (3, 5)</t>
+          <t>(1, 2), (1, 3)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_041, SUB_049</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FAC_127</t>
+          <t>FAC_030</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(4, 6), (4, 7)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_067, SUB_064</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_138, FAC_054, FAC_089</t>
+          <t>FAC_001, FAC_030, FAC_038, FAC_035</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1210,27 +1210,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(2, 6), (2, 7)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_069</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FAC_063, FAC_138, FAC_054, FAC_089</t>
+          <t>FAC_005, FAC_039, FAC_001, FAC_017</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1241,27 +1241,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(3, 2), (3, 3)</t>
+          <t>(2, 2), (2, 3)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_018, SUB_040</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
+          <t>FAC_038</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1272,27 +1272,27 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(2, 2), (2, 3)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SUB_010, SUB_013</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FAC_097, FAC_084, FAC_025, FAC_064</t>
+          <t>FAC_003, FAC_012</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1303,27 +1303,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(3, 0), (3, 1)</t>
+          <t>(0, 0), (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_063</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_093, FAC_038</t>
+          <t>FAC_016</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1340,21 +1340,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_047, SUB_071</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_042, FAC_030, FAC_136</t>
+          <t>FAC_025</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1365,27 +1365,27 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(1, 6), (1, 7)</t>
+          <t>(3, 0), (3, 1)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_044</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FAC_001, FAC_058, FAC_030, FAC_136</t>
+          <t>FAC_011</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1396,1501 +1396,1309 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(4, 0), (4, 1)</t>
+          <t>(1, 4), (1, 5)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_000, SEC_001, SEC_002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_014</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FAC_116</t>
+          <t>FAC_013, FAC_037, FAC_031, FAC_040</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_003, SEC_004, SEC_005</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_075</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FAC_093, FAC_086, FAC_038</t>
+          <t>FAC_004</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_006, SEC_007, SEC_008</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_026</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_038, FAC_029, FAC_131</t>
+          <t>FAC_033</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_009, SEC_010, SEC_011</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_052</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FAC_005, FAC_092, FAC_029, FAC_131</t>
+          <t>FAC_013, FAC_041, FAC_023, FAC_017</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>(4, 0), (4, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_012, SEC_013, SEC_014</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_032</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_025, FAC_032, FAC_004</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_015, SEC_016, SEC_017</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_054</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FAC_038, FAC_086, FAC_093</t>
+          <t>FAC_037, FAC_028, FAC_021, FAC_025</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_067, SUB_047</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_042, FAC_011, FAC_029</t>
+          <t>FAC_034, FAC_013</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_029</t>
+          <t>SUB_033</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FAC_058, FAC_092, FAC_011, FAC_131</t>
+          <t>FAC_002, FAC_035</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>(0, 4), (0, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_025, SUB_038</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FAC_127</t>
+          <t>FAC_007, FAC_029</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>(1, 2), (1, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_047</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FAC_083, FAC_037, FAC_099</t>
+          <t>FAC_012, FAC_019, FAC_041</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_056, SUB_037</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_101</t>
+          <t>FAC_027, FAC_004</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_058, SUB_017</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FAC_105, FAC_026, FAC_053, FAC_087</t>
+          <t>FAC_014, FAC_021, FAC_008, FAC_040</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_022, SUB_072</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>FAC_031, FAC_037, FAC_099</t>
+          <t>FAC_011, FAC_021, FAC_017, FAC_037</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_013, SUB_061</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_044</t>
+          <t>FAC_005, FAC_034</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_036, SUB_056</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FAC_036, FAC_052, FAC_096, FAC_075</t>
+          <t>FAC_038, FAC_020, FAC_018, FAC_011</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>(0, 6), (0, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_033</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FAC_138, FAC_037, FAC_099</t>
+          <t>FAC_031, FAC_035, FAC_033, FAC_032</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_058</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FAC_123, FAC_065, FAC_052, FAC_102</t>
+          <t>FAC_039, FAC_028, FAC_032</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_064, SUB_022</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FAC_123, FAC_065, FAC_052, FAC_133</t>
+          <t>FAC_039, FAC_021</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>(2, 2), (2, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_045, SUB_047</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_064</t>
+          <t>FAC_007, FAC_018, FAC_005</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_051</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FAC_024, FAC_004, FAC_048, FAC_045</t>
+          <t>FAC_036, FAC_037, FAC_024</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_071</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FAC_127</t>
+          <t>FAC_007</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_073</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_109, FAC_002, FAC_078</t>
+          <t>FAC_024, FAC_025</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_048, SUB_071</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>FAC_057, FAC_109, FAC_002, FAC_023</t>
+          <t>FAC_013, FAC_035, FAC_026</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_028</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FAC_112</t>
+          <t>FAC_011</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_061</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_019, FAC_124, FAC_057</t>
+          <t>FAC_026, FAC_012</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_068</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FAC_002, FAC_003, FAC_124, FAC_059</t>
+          <t>FAC_002, FAC_032, FAC_020, FAC_018</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>(2, 4), (2, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SEC_016</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_055</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FAC_116</t>
+          <t>FAC_006, FAC_007, FAC_004, FAC_041</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_033</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_023</t>
+          <t>FAC_008, FAC_038, FAC_031</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_040</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FAC_043, FAC_059, FAC_008, FAC_068</t>
+          <t>FAC_005, FAC_017, FAC_003, FAC_007</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SEC_017</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_028, SUB_046</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_020, FAC_038, FAC_026</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_016</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_124, FAC_048</t>
+          <t>FAC_023, FAC_030, FAC_041, FAC_019</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SUB_016, SUB_024</t>
+          <t>SUB_016, SUB_068</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FAC_078, FAC_102, FAC_124, FAC_064</t>
+          <t>FAC_033, FAC_026</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FAC_117</t>
+          <t>FAC_034</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_045</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_044, FAC_101, FAC_102</t>
+          <t>FAC_029, FAC_015, FAC_019, FAC_011</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>(3, 0), (3, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SEC_000</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_062, SUB_053</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FAC_033, FAC_105, FAC_101, FAC_036</t>
+          <t>FAC_028, FAC_039</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_053</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_007</t>
+          <t>FAC_004, FAC_000</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SEC_001</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_046, SUB_027</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>FAC_065, FAC_096, FAC_098, FAC_087</t>
+          <t>FAC_031, FAC_014</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>(0, 4), (0, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_067</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
+          <t>FAC_012, FAC_040</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>(2, 4), (2, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SEC_002</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_044, SUB_064</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FAC_026, FAC_027, FAC_014, FAC_063</t>
+          <t>FAC_039</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_070</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_081</t>
+          <t>FAC_035</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SEC_003</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_040, SUB_023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FAC_040, FAC_062, FAC_051, FAC_102</t>
+          <t>FAC_032, FAC_014</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_017, SUB_069</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_098</t>
+          <t>FAC_015</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SEC_004</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_030, SUB_016</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FAC_012, FAC_062, FAC_081, FAC_051</t>
+          <t>FAC_031</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>(0, 0), (0, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUB_041</t>
+          <t>SUB_025</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FAC_059, FAC_072, FAC_068</t>
+          <t>FAC_038</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>(1, 2), (1, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SUB_052</t>
+          <t>SUB_029, SUB_053</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_132, FAC_094, FAC_016</t>
+          <t>FAC_017, FAC_026, FAC_022, FAC_036</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>(0, 2), (0, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SUB_046</t>
+          <t>SUB_057</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FAC_022, FAC_132, FAC_094, FAC_016</t>
+          <t>FAC_016, FAC_033, FAC_036</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEC_022</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_059</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FAC_118</t>
+          <t>FAC_039, FAC_014, FAC_028</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SEC_008</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_034</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_040, FAC_083, FAC_052</t>
+          <t>FAC_010, FAC_003, FAC_005, FAC_028</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2899,636 +2707,556 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SUB_003, SUB_010</t>
+          <t>SUB_067</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_062, FAC_083, FAC_014</t>
+          <t>FAC_003, FAC_036</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_032</t>
+          <t>SUB_021, SUB_056</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_071, FAC_123, FAC_073</t>
+          <t>FAC_018</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_002</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SUB_050, SUB_033</t>
+          <t>SUB_024, SUB_039</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>FAC_092, FAC_022, FAC_123, FAC_073</t>
+          <t>FAC_023, FAC_020, FAC_018</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SEC_026</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_033, SUB_055</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FAC_126</t>
+          <t>FAC_005, FAC_027</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_035</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_120, FAC_085, FAC_077</t>
+          <t>FAC_038, FAC_008</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>(3, 2), (3, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SEC_012</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_037</t>
+          <t>SUB_030</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>FAC_007, FAC_120, FAC_085, FAC_077</t>
+          <t>FAC_040, FAC_021</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>(1, 4), (1, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SUB_035</t>
+          <t>SUB_030, SUB_025</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FAC_107</t>
+          <t>FAC_016, FAC_017</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>(4, 4), (4, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SUB_020</t>
+          <t>SUB_062</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>FAC_128, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_021, FAC_033</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SEC_027</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SUB_044</t>
+          <t>SUB_066</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>FAC_128, FAC_031, FAC_020, FAC_093</t>
+          <t>FAC_001, FAC_006, FAC_010</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SUB_034</t>
+          <t>SUB_060, SUB_038</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>FAC_115</t>
+          <t>FAC_028, FAC_024, FAC_029, FAC_019</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>2</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>(2, 0), (2, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_068</t>
+          <t>SUB_043</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>FAC_111, FAC_009, FAC_088</t>
+          <t>FAC_005, FAC_032, FAC_040, FAC_007</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>(3, 0), (3, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SUB_018, SUB_069</t>
+          <t>SUB_015</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FAC_111, FAC_009, FAC_088</t>
+          <t>FAC_030, FAC_012, FAC_007, FAC_033</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>(1, 0), (1, 1)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_007</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_013, SUB_025</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_135</t>
+          <t>FAC_040</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SEC_013</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SUB_013, SUB_006</t>
+          <t>SUB_068</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FAC_089, FAC_047, FAC_019, FAC_135</t>
+          <t>FAC_002, FAC_015, FAC_023</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>(0, 2), (0, 3)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SUB_040</t>
+          <t>SUB_062, SUB_042</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FAC_088, FAC_050, FAC_119</t>
+          <t>FAC_002</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>(2, 6), (2, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SUB_050</t>
+          <t>SUB_016</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_119, FAC_000, FAC_134</t>
+          <t>FAC_007, FAC_011</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SUB_030</t>
+          <t>SUB_027, SUB_018</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>FAC_044, FAC_119, FAC_000, FAC_130</t>
+          <t>FAC_038, FAC_026</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>(1, 6), (1, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SEC_023</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SUB_074</t>
+          <t>SUB_073</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>FAC_112</t>
+          <t>FAC_027, FAC_037</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>(3, 6), (3, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SUB_003</t>
+          <t>SUB_069, SUB_045</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>FAC_027, FAC_012, FAC_044</t>
+          <t>FAC_015, FAC_035, FAC_031</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>(3, 4), (3, 5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SEC_009</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SUB_010</t>
+          <t>SUB_069</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>FAC_041, FAC_090, FAC_102</t>
+          <t>FAC_010, FAC_006</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>(4, 6), (4, 7)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SEC_024, SEC_025, SEC_026</t>
+          <t>SEC_001</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SUB_038, SUB_041</t>
+          <t>SUB_067, SUB_064</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>FAC_077, FAC_072, FAC_011, FAC_026</t>
+          <t>FAC_013, FAC_006, FAC_026</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3537,25 +3265,25 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SEC_010, SEC_011, SEC_012</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SUB_065, SUB_001, SUB_011</t>
+          <t>SUB_071</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FAC_082, FAC_074, FAC_119, FAC_137</t>
+          <t>FAC_018, FAC_002, FAC_008, FAC_033</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3564,21 +3292,21 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SEC_019, SEC_020, SEC_021</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SUB_021, SUB_026</t>
+          <t>SUB_055</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>FAC_010, FAC_052, FAC_023, FAC_001</t>
+          <t>FAC_014, FAC_007, FAC_010, FAC_030</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3591,25 +3319,25 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SEC_014, SEC_015, SEC_016, SEC_017, SEC_018</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SUB_025, SUB_041, SUB_038</t>
+          <t>SUB_023, SUB_069</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>FAC_086, FAC_059, FAC_043, FAC_022, FAC_072, FAC_011, FAC_010</t>
+          <t>FAC_005, FAC_020, FAC_033</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3618,21 +3346,21 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SEC_000, SEC_001, SEC_002, SEC_003, SEC_004</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SUB_065, SUB_001, SUB_011</t>
+          <t>SUB_059</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>FAC_095, FAC_106, FAC_015, FAC_007, FAC_035, FAC_064</t>
+          <t>FAC_025</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3645,25 +3373,25 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
+        <v>86</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SEC_006</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SUB_065, SUB_036</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>FAC_013</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
         <v>3</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SEC_025</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>FAC_087</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>4</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -3672,21 +3400,21 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_068, SUB_013</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>FAC_001</t>
+          <t>FAC_015, FAC_007, FAC_033, FAC_008</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3699,25 +3427,25 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_019, SUB_031</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>FAC_004</t>
+          <t>FAC_027, FAC_016</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3726,25 +3454,25 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SEC_025</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_074</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>FAC_105</t>
+          <t>FAC_013, FAC_028, FAC_035, FAC_018</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3753,25 +3481,25 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_039, SUB_069</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>FAC_091</t>
+          <t>FAC_037, FAC_034</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3780,21 +3508,21 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_051, SUB_027</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>FAC_071</t>
+          <t>FAC_000</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3807,25 +3535,25 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_042</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FAC_024</t>
+          <t>FAC_035, FAC_019, FAC_021, FAC_029</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3834,25 +3562,25 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SEC_024</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SUB_025</t>
+          <t>SUB_071, SUB_050</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FAC_005</t>
+          <t>FAC_035, FAC_007</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3861,21 +3589,21 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_027</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>FAC_122</t>
+          <t>FAC_030</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3888,21 +3616,21 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_038, SUB_071</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>FAC_063</t>
+          <t>FAC_041</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3915,21 +3643,21 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SEC_010</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SUB_004</t>
+          <t>SUB_064</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>FAC_040</t>
+          <t>FAC_019, FAC_017</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3942,7 +3670,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3951,16 +3679,16 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_058</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FAC_061</t>
+          <t>FAC_011, FAC_006, FAC_027, FAC_020</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3969,25 +3697,25 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_023, SUB_029</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>FAC_013</t>
+          <t>FAC_015, FAC_013</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3996,25 +3724,25 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_064, SUB_042</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>FAC_097</t>
+          <t>FAC_016, FAC_027, FAC_023, FAC_009</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4023,25 +3751,25 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SUB_004</t>
+          <t>SUB_061, SUB_066</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>FAC_096</t>
+          <t>FAC_007, FAC_011, FAC_010, FAC_036</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4050,21 +3778,21 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SEC_011</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SUB_012</t>
+          <t>SUB_045</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FAC_025</t>
+          <t>FAC_030, FAC_003, FAC_018, FAC_029</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4077,25 +3805,25 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_027, SUB_030</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FAC_032</t>
+          <t>FAC_009</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4104,25 +3832,25 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_047, SUB_017</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>FAC_030</t>
+          <t>FAC_015, FAC_034</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4131,25 +3859,25 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_043, SUB_065</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FAC_067</t>
+          <t>FAC_038, FAC_013, FAC_037</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4158,25 +3886,25 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SEC_019</t>
+          <t>SEC_004</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_024, SUB_020</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FAC_086</t>
+          <t>FAC_017, FAC_015, FAC_013, FAC_035</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4185,25 +3913,25 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_003</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_062</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FAC_005</t>
+          <t>FAC_040, FAC_031, FAC_030</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4212,25 +3940,25 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_028, SUB_066</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>FAC_029</t>
+          <t>FAC_018, FAC_013</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4239,25 +3967,25 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_058</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FAC_002</t>
+          <t>FAC_006, FAC_007, FAC_033, FAC_008</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4266,21 +3994,21 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SEC_020</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_051</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>FAC_093</t>
+          <t>FAC_000, FAC_022, FAC_008, FAC_040</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4293,25 +4021,25 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_010</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SUB_049</t>
+          <t>SUB_023</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FAC_058</t>
+          <t>FAC_023, FAC_016, FAC_035, FAC_031</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4320,25 +4048,25 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SUB_028</t>
+          <t>SUB_018</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FAC_029</t>
+          <t>FAC_029, FAC_025, FAC_037, FAC_002</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4347,25 +4075,25 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_009</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_069</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FAC_060</t>
+          <t>FAC_032, FAC_004, FAC_026</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -4374,25 +4102,25 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SEC_021</t>
+          <t>SEC_011</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SUB_053</t>
+          <t>SUB_034</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>FAC_038</t>
+          <t>FAC_002, FAC_026, FAC_012, FAC_034</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4401,25 +4129,25 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_044, SUB_067</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>FAC_104</t>
+          <t>FAC_026, FAC_015, FAC_007</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -4428,25 +4156,25 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_013, SUB_059</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>FAC_053</t>
+          <t>FAC_017, FAC_000, FAC_028</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -4455,21 +4183,21 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_073</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>FAC_054</t>
+          <t>FAC_014</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4482,21 +4210,21 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_008</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_048, SUB_071</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>FAC_105</t>
+          <t>FAC_031</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4509,21 +4237,21 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SEC_005</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_061</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>FAC_083</t>
+          <t>FAC_032, FAC_007, FAC_035, FAC_022</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4536,21 +4264,21 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_015</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_024</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>FAC_069</t>
+          <t>FAC_011</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4563,25 +4291,25 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_070</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>FAC_036</t>
+          <t>FAC_040, FAC_018, FAC_023, FAC_012</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4590,21 +4318,21 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_051</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>FAC_077</t>
+          <t>FAC_030</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4617,21 +4345,21 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_036</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>FAC_096</t>
+          <t>FAC_006</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4644,25 +4372,25 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SEC_006</t>
+          <t>SEC_019</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_031, SUB_033</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>FAC_031</t>
+          <t>FAC_031, FAC_037, FAC_000</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -4671,25 +4399,25 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_014</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SUB_064</t>
+          <t>SUB_070</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>FAC_021</t>
+          <t>FAC_021, FAC_040</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -4698,25 +4426,25 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_005</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SUB_009</t>
+          <t>SUB_063, SUB_047</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>FAC_129</t>
+          <t>FAC_031, FAC_037, FAC_024, FAC_030</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4725,25 +4453,25 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SUB_036</t>
+          <t>SUB_045, SUB_020</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>FAC_100</t>
+          <t>FAC_023, FAC_004, FAC_012</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -4752,25 +4480,25 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_018</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SUB_002</t>
+          <t>SUB_029, SUB_065</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>FAC_123</t>
+          <t>FAC_041, FAC_040, FAC_038, FAC_037</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4779,25 +4507,25 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SEC_007</t>
+          <t>SEC_016</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SUB_008</t>
+          <t>SUB_017, SUB_069</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>FAC_138</t>
+          <t>FAC_028, FAC_020, FAC_013, FAC_025</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -4806,21 +4534,21 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_012</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_073, SUB_015</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>FAC_047</t>
+          <t>FAC_032, FAC_029, FAC_036</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4833,25 +4561,25 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_017</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_039, SUB_049</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>FAC_024</t>
+          <t>FAC_026, FAC_007, FAC_016</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -4860,11 +4588,11 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4874,7 +4602,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>FAC_048</t>
+          <t>FAC_023</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4887,25 +4615,25 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SEC_014</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SUB_039</t>
+          <t>SUB_068</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>FAC_084</t>
+          <t>FAC_018</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4914,21 +4642,21 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_000</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SUB_014</t>
+          <t>SUB_024, SUB_025</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>FAC_103</t>
+          <t>FAC_037, FAC_024, FAC_023, FAC_015</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4941,25 +4669,25 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_006</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SUB_015</t>
+          <t>SUB_044</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>FAC_002</t>
+          <t>FAC_004</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -4968,21 +4696,21 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SEC_015</t>
+          <t>SEC_013</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SUB_023</t>
+          <t>SUB_015, SUB_073</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>FAC_057</t>
+          <t>FAC_017, FAC_021, FAC_024</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -4992,1977 +4720,6 @@
         <v>0</v>
       </c>
       <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>94</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>SEC_015</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>SUB_039</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>FAC_098</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>98</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>SEC_016</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>FAC_016</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>99</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>SEC_016</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>SUB_015</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>FAC_006</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>100</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SEC_016</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>SUB_023</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>FAC_124</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>4</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>101</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>SEC_016</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>SUB_039</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>FAC_053</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>4</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>105</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SEC_017</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>FAC_038</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>106</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SEC_017</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>SUB_015</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>FAC_008</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>3</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>107</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>SEC_017</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>SUB_023</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>FAC_043</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>4</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>108</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SEC_017</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>SUB_039</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>FAC_131</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>112</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>SEC_018</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>FAC_123</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>113</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>SEC_018</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>SUB_015</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>FAC_019</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>114</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>SEC_018</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>SUB_023</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>FAC_124</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>4</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>115</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>SEC_018</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>SUB_039</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>FAC_046</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>4</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>120</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>SEC_000</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>FAC_108</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>4</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>121</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>SEC_000</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>FAC_101</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>4</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>122</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>SEC_000</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>FAC_018</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>123</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>SEC_000</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>FAC_033</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>4</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>126</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>SEC_001</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>FAC_080</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>4</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>127</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>SEC_001</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>FAC_098</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>4</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>128</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>SEC_001</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>FAC_084</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>129</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>SEC_001</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>FAC_065</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>4</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>132</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>SEC_002</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>FAC_079</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>4</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>133</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>SEC_002</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>FAC_014</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>4</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>134</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>SEC_002</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>FAC_099</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>3</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>135</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>SEC_002</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>FAC_026</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>4</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>138</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SEC_003</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>FAC_056</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>4</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>139</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SEC_003</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>FAC_051</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>140</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>SEC_003</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>FAC_077</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>141</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>SEC_003</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>FAC_040</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>4</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>144</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>SEC_004</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>FAC_017</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>4</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>145</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>SEC_004</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>FAC_081</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>4</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>146</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>SEC_004</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>FAC_102</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>3</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>147</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SEC_004</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>FAC_012</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>4</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>150</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>SUB_051</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>FAC_022</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>4</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>151</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>SUB_045</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>FAC_094</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>4</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>152</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>SUB_047</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>FAC_034</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>153</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>SUB_048</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>FAC_068</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>4</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>154</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>SEC_022</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>SUB_041</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>FAC_059</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>159</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>SEC_008</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>FAC_114</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>4</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>160</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>SEC_008</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>FAC_083</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>4</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>161</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>SEC_008</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>FAC_120</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>162</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>SEC_008</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>FAC_044</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>163</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>SEC_008</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>SUB_065</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>FAC_076</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>4</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>166</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>SEC_026</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>FAC_091</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>4</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>167</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>SEC_026</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>SUB_049</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>FAC_028</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>4</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>168</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>SEC_026</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>SUB_031</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>FAC_070</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>4</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>169</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>SEC_026</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>SUB_039</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>FAC_018</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>4</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>173</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>SEC_012</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>SUB_066</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>FAC_125</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>4</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>174</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>SEC_012</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>FAC_085</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>175</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>SEC_012</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>SUB_012</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>FAC_007</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>3</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>176</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>SEC_012</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>SUB_004</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>FAC_027</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>4</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>179</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>SUB_019</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>FAC_000</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>3</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>180</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>SUB_042</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>FAC_034</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>4</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>181</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>SUB_043</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>FAC_020</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>3</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>182</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>SUB_000</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>FAC_110</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>4</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>183</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>SUB_035</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>FAC_107</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>185</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>SEC_027</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>SUB_071</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>FAC_066</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>188</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>SUB_012</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>FAC_089</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>3</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>189</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>SUB_005</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>FAC_019</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>4</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>190</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>SUB_017</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>FAC_009</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>3</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>191</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>SUB_070</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>FAC_049</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>3</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>192</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>SUB_034</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>FAC_115</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>194</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>SEC_013</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>SUB_067</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>FAC_104</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>3</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>199</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>SUB_049</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>FAC_000</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>4</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>200</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>SUB_027</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>FAC_006</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>4</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>201</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>SUB_022</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>FAC_065</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>3</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>202</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>SUB_040</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>FAC_088</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>3</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>204</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>SEC_023</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>SUB_014</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>FAC_039</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>4</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>208</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>SEC_009</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>SUB_064</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>FAC_121</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>4</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>209</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>SEC_009</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>SUB_009</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>FAC_041</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>4</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>210</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>SEC_009</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>SUB_036</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>FAC_055</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>3</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>211</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>SEC_009</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>SUB_002</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>FAC_062</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>4</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>212</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>SEC_009</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>SUB_007</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>FAC_068</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>4</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
